--- a/CustomLocalization/Localization/RogueTech/RU/Solaris7RT/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Solaris7RT/LocalizationDef.xlsx
@@ -2011,7 +2011,7 @@
     <t>solaris_assault_4x4freeforall_mech_2.dialogueList9.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">PLACEHOLDER, Hark {COMMANDER.Name} here are unexpected {TEAM_TAR_ALLY.FactionDef.Demonym} bad guys  are here too. Don't that beat it all. This is the secondary objective version.</t>
+    <t>PLACEHOLDER, Hark {COMMANDER.Name} here are unexpected {TEAM_TAR_ALLY.FactionDef.Demonym} bad guys are here too. Don't that beat it all. This is the secondary objective version.</t>
   </si>
   <si>
     <t>PLACEHOLDER, Hark {COMMANDER.Name} here are unexpected {TEAM_TAR_ALLY.FactionDef.Name} bad guys are here too. Don't that beat it all. This is the secondary objective version.</t>
@@ -10835,7 +10835,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1">
@@ -15645,14 +15646,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="438" s="3" customFormat="1">
-      <c r="A438" s="3" t="s">
+    <row r="438">
+      <c r="A438" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B438" s="3" t="s">
+      <c r="B438" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C438" s="3" t="s">
+      <c r="C438" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -17163,14 +17164,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="576" s="3" customFormat="1">
-      <c r="A576" s="3" t="s">
+    <row r="576">
+      <c r="A576" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B576" s="3" t="s">
+      <c r="B576" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C576" s="3" t="s">
+      <c r="C576" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -18681,14 +18682,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="714" s="3" customFormat="1">
-      <c r="A714" s="3" t="s">
+    <row r="714">
+      <c r="A714" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="B714" s="3" t="s">
+      <c r="B714" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C714" s="3" t="s">
+      <c r="C714" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -21882,14 +21883,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="1005" s="3" customFormat="1">
-      <c r="A1005" s="3" t="s">
+    <row r="1005">
+      <c r="A1005" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="B1005" s="3" t="s">
+      <c r="B1005" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C1005" s="3" t="s">
+      <c r="C1005" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -23400,14 +23401,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="1143" s="3" customFormat="1">
-      <c r="A1143" s="3" t="s">
+    <row r="1143">
+      <c r="A1143" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="B1143" s="3" t="s">
+      <c r="B1143" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C1143" s="3" t="s">
+      <c r="C1143" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -24918,14 +24919,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="1281" s="3" customFormat="1">
-      <c r="A1281" s="3" t="s">
+    <row r="1281">
+      <c r="A1281" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="B1281" s="3" t="s">
+      <c r="B1281" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C1281" s="3" t="s">
+      <c r="C1281" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -28119,14 +28120,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="1572" s="3" customFormat="1">
-      <c r="A1572" s="3" t="s">
+    <row r="1572">
+      <c r="A1572" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="B1572" s="3" t="s">
+      <c r="B1572" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C1572" s="3" t="s">
+      <c r="C1572" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -29637,14 +29638,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="1710" s="3" customFormat="1">
-      <c r="A1710" s="3" t="s">
+    <row r="1710">
+      <c r="A1710" s="2" t="s">
         <v>2006</v>
       </c>
-      <c r="B1710" s="3" t="s">
+      <c r="B1710" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C1710" s="3" t="s">
+      <c r="C1710" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -31155,14 +31156,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="1848" s="3" customFormat="1">
-      <c r="A1848" s="3" t="s">
+    <row r="1848">
+      <c r="A1848" s="2" t="s">
         <v>2144</v>
       </c>
-      <c r="B1848" s="3" t="s">
+      <c r="B1848" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C1848" s="3" t="s">
+      <c r="C1848" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -34356,14 +34357,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2139" s="3" customFormat="1">
-      <c r="A2139" s="3" t="s">
+    <row r="2139">
+      <c r="A2139" s="2" t="s">
         <v>2445</v>
       </c>
-      <c r="B2139" s="3" t="s">
+      <c r="B2139" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C2139" s="3" t="s">
+      <c r="C2139" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -35874,14 +35875,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2277" s="3" customFormat="1">
-      <c r="A2277" s="3" t="s">
+    <row r="2277">
+      <c r="A2277" s="2" t="s">
         <v>2584</v>
       </c>
-      <c r="B2277" s="3" t="s">
+      <c r="B2277" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C2277" s="3" t="s">
+      <c r="C2277" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -37392,14 +37393,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2415" s="3" customFormat="1">
-      <c r="A2415" s="3" t="s">
+    <row r="2415">
+      <c r="A2415" s="2" t="s">
         <v>2722</v>
       </c>
-      <c r="B2415" s="3" t="s">
+      <c r="B2415" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C2415" s="3" t="s">
+      <c r="C2415" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -40593,14 +40594,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2706" s="3" customFormat="1">
-      <c r="A2706" s="3" t="s">
+    <row r="2706">
+      <c r="A2706" s="2" t="s">
         <v>3024</v>
       </c>
-      <c r="B2706" s="3" t="s">
+      <c r="B2706" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C2706" s="3" t="s">
+      <c r="C2706" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -42111,14 +42112,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2844" s="3" customFormat="1">
-      <c r="A2844" s="3" t="s">
+    <row r="2844">
+      <c r="A2844" s="2" t="s">
         <v>3163</v>
       </c>
-      <c r="B2844" s="3" t="s">
+      <c r="B2844" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C2844" s="3" t="s">
+      <c r="C2844" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -43629,14 +43630,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2982" s="3" customFormat="1">
-      <c r="A2982" s="3" t="s">
+    <row r="2982">
+      <c r="A2982" s="2" t="s">
         <v>3301</v>
       </c>
-      <c r="B2982" s="3" t="s">
+      <c r="B2982" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C2982" s="3" t="s">
+      <c r="C2982" s="2" t="s">
         <v>658</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/Solaris7RT/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Solaris7RT/LocalizationDef.xlsx
@@ -2011,7 +2011,7 @@
     <t>solaris_assault_4x4freeforall_mech_2.dialogueList9.dialogueContent0.words</t>
   </si>
   <si>
-    <t>PLACEHOLDER, Hark {COMMANDER.Name} here are unexpected {TEAM_TAR_ALLY.FactionDef.Demonym} bad guys are here too. Don't that beat it all. This is the secondary objective version.</t>
+    <t xml:space="preserve">PLACEHOLDER, Hark {COMMANDER.Name} here are unexpected {TEAM_TAR_ALLY.FactionDef.Demonym} bad guys  are here too. Don't that beat it all. This is the secondary objective version.</t>
   </si>
   <si>
     <t>PLACEHOLDER, Hark {COMMANDER.Name} here are unexpected {TEAM_TAR_ALLY.FactionDef.Name} bad guys are here too. Don't that beat it all. This is the secondary objective version.</t>
@@ -10835,8 +10835,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1">
@@ -15646,14 +15645,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="s">
+    <row r="438" s="3" customFormat="1">
+      <c r="A438" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C438" s="2" t="s">
+      <c r="C438" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -17164,14 +17163,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="576">
-      <c r="A576" s="2" t="s">
+    <row r="576" s="3" customFormat="1">
+      <c r="A576" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="B576" s="2" t="s">
+      <c r="B576" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C576" s="2" t="s">
+      <c r="C576" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -18682,14 +18681,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="714">
-      <c r="A714" s="2" t="s">
+    <row r="714" s="3" customFormat="1">
+      <c r="A714" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="B714" s="2" t="s">
+      <c r="B714" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C714" s="2" t="s">
+      <c r="C714" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -21883,14 +21882,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="1005">
-      <c r="A1005" s="2" t="s">
+    <row r="1005" s="3" customFormat="1">
+      <c r="A1005" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="B1005" s="2" t="s">
+      <c r="B1005" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C1005" s="2" t="s">
+      <c r="C1005" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -23401,14 +23400,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="1143">
-      <c r="A1143" s="2" t="s">
+    <row r="1143" s="3" customFormat="1">
+      <c r="A1143" s="3" t="s">
         <v>1428</v>
       </c>
-      <c r="B1143" s="2" t="s">
+      <c r="B1143" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C1143" s="2" t="s">
+      <c r="C1143" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -24919,14 +24918,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="1281">
-      <c r="A1281" s="2" t="s">
+    <row r="1281" s="3" customFormat="1">
+      <c r="A1281" s="3" t="s">
         <v>1566</v>
       </c>
-      <c r="B1281" s="2" t="s">
+      <c r="B1281" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C1281" s="2" t="s">
+      <c r="C1281" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -28120,14 +28119,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="1572">
-      <c r="A1572" s="2" t="s">
+    <row r="1572" s="3" customFormat="1">
+      <c r="A1572" s="3" t="s">
         <v>1867</v>
       </c>
-      <c r="B1572" s="2" t="s">
+      <c r="B1572" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C1572" s="2" t="s">
+      <c r="C1572" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -29638,14 +29637,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="1710">
-      <c r="A1710" s="2" t="s">
+    <row r="1710" s="3" customFormat="1">
+      <c r="A1710" s="3" t="s">
         <v>2006</v>
       </c>
-      <c r="B1710" s="2" t="s">
+      <c r="B1710" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C1710" s="2" t="s">
+      <c r="C1710" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -31156,14 +31155,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="1848">
-      <c r="A1848" s="2" t="s">
+    <row r="1848" s="3" customFormat="1">
+      <c r="A1848" s="3" t="s">
         <v>2144</v>
       </c>
-      <c r="B1848" s="2" t="s">
+      <c r="B1848" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C1848" s="2" t="s">
+      <c r="C1848" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -34357,14 +34356,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2139">
-      <c r="A2139" s="2" t="s">
+    <row r="2139" s="3" customFormat="1">
+      <c r="A2139" s="3" t="s">
         <v>2445</v>
       </c>
-      <c r="B2139" s="2" t="s">
+      <c r="B2139" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C2139" s="2" t="s">
+      <c r="C2139" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -35875,14 +35874,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2277">
-      <c r="A2277" s="2" t="s">
+    <row r="2277" s="3" customFormat="1">
+      <c r="A2277" s="3" t="s">
         <v>2584</v>
       </c>
-      <c r="B2277" s="2" t="s">
+      <c r="B2277" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C2277" s="2" t="s">
+      <c r="C2277" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -37393,14 +37392,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2415">
-      <c r="A2415" s="2" t="s">
+    <row r="2415" s="3" customFormat="1">
+      <c r="A2415" s="3" t="s">
         <v>2722</v>
       </c>
-      <c r="B2415" s="2" t="s">
+      <c r="B2415" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C2415" s="2" t="s">
+      <c r="C2415" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -40594,14 +40593,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2706">
-      <c r="A2706" s="2" t="s">
+    <row r="2706" s="3" customFormat="1">
+      <c r="A2706" s="3" t="s">
         <v>3024</v>
       </c>
-      <c r="B2706" s="2" t="s">
+      <c r="B2706" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C2706" s="2" t="s">
+      <c r="C2706" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -42112,14 +42111,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2844">
-      <c r="A2844" s="2" t="s">
+    <row r="2844" s="3" customFormat="1">
+      <c r="A2844" s="3" t="s">
         <v>3163</v>
       </c>
-      <c r="B2844" s="2" t="s">
+      <c r="B2844" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C2844" s="2" t="s">
+      <c r="C2844" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -43630,14 +43629,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2982">
-      <c r="A2982" s="2" t="s">
+    <row r="2982" s="3" customFormat="1">
+      <c r="A2982" s="3" t="s">
         <v>3301</v>
       </c>
-      <c r="B2982" s="2" t="s">
+      <c r="B2982" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C2982" s="2" t="s">
+      <c r="C2982" s="3" t="s">
         <v>658</v>
       </c>
     </row>
